--- a/Bitacora Web2.0 QA.xlsx
+++ b/Bitacora Web2.0 QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\turbus_web2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77114A42-83AE-4BD2-9F70-3B1C4A4E2F43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39CD1B5F-570C-4303-80C2-BF8A1668E830}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mes</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Entrega por parte de Margarita, datos de prueba. Indica que no cuentan como tal casos de prueba establecidos, menciona algunos flujos que han realizados para probar la aplicación. Se procede a realizar el capture de los elementos html de la aplicación para realizar los ajustes respectivos previos a la automatización.</t>
+  </si>
+  <si>
+    <t>Reunión para conocer equipo de trabajo y priorizar puntos del proyecto.
+Instalación y configuración de apache maven en Jenkins</t>
   </si>
 </sst>
 </file>
@@ -480,7 +484,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +547,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="7">
         <v>43431</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">

--- a/Bitacora Web2.0 QA.xlsx
+++ b/Bitacora Web2.0 QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\turbus_web2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\turbus_web2\turbus_web2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39CD1B5F-570C-4303-80C2-BF8A1668E830}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FD544C7-2DDF-4842-AFE5-C8A96F57762B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Mes</t>
   </si>
@@ -56,8 +56,25 @@
     <t>Entrega por parte de Margarita, datos de prueba. Indica que no cuentan como tal casos de prueba establecidos, menciona algunos flujos que han realizados para probar la aplicación. Se procede a realizar el capture de los elementos html de la aplicación para realizar los ajustes respectivos previos a la automatización.</t>
   </si>
   <si>
-    <t>Reunión para conocer equipo de trabajo y priorizar puntos del proyecto.
-Instalación y configuración de apache maven en Jenkins</t>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Reunión para conocer equipo de trabajo y establecer riesgos del proyecto</t>
+  </si>
+  <si>
+    <t>Configuración de Jenkins</t>
+  </si>
+  <si>
+    <t>Entrega de casos de prueba por parte de Nelson Cordova, igualmente, Margarita hace entrega de ambiente QA</t>
+  </si>
+  <si>
+    <t>En ambiente QA, se observa incovenientes con webpay</t>
+  </si>
+  <si>
+    <t>Se procede a la construcción de scripts de pruebas automatizadas</t>
+  </si>
+  <si>
+    <t>Enero</t>
   </si>
 </sst>
 </file>
@@ -106,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +142,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -138,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +195,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,16 +522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
   </cols>
@@ -547,13 +588,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="7">
         <v>43431</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -561,22 +602,415 @@
       <c r="B7" s="7">
         <v>43432</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="7">
         <v>43433</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="7">
         <v>43434</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7">
+        <v>43437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="7">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="7">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="13">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="7">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="7">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="13">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="13">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="7">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="7">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="7">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="13">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="13">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="7">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="7">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="7">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="7">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="7">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="13">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="13">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="7">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="7">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="7">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="7">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="7">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="13">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="13">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="7">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="7">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="7">
+        <v>43496</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A41:A71"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bitacora Web2.0 QA.xlsx
+++ b/Bitacora Web2.0 QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\turbus_web2\turbus_web2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\turbus_web2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FD544C7-2DDF-4842-AFE5-C8A96F57762B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D372D54-ADC0-4C35-9249-E61C14BB5123}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Mes</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Enero</t>
+  </si>
+  <si>
+    <t>Modificar scripts de pruebas debido a que comportamiento de la pág cambió</t>
+  </si>
+  <si>
+    <t>Ejecución de pruebas</t>
   </si>
 </sst>
 </file>
@@ -193,20 +199,20 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,14 +530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
   </cols>
@@ -556,8 +562,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7">
@@ -568,19 +574,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="8">
         <v>43428</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8">
         <v>43429</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7">
         <v>43430</v>
       </c>
@@ -589,7 +595,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7">
         <v>43431</v>
       </c>
@@ -598,7 +604,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7">
         <v>43432</v>
       </c>
@@ -607,7 +613,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7">
         <v>43433</v>
       </c>
@@ -616,7 +622,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7">
         <v>43434</v>
       </c>
@@ -628,21 +634,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>43435</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9">
         <v>43436</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7">
         <v>43437</v>
       </c>
@@ -651,357 +657,384 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7">
         <v>43438</v>
       </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7">
         <v>43439</v>
       </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7">
         <v>43440</v>
       </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="7">
         <v>43441</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9">
         <v>43442</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9">
         <v>43443</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="7">
         <v>43444</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="7">
         <v>43445</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="7">
         <v>43446</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="7">
         <v>43447</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="B23" s="7">
         <v>43448</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
         <v>43449</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9">
         <v>43450</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="7">
         <v>43451</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="7">
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="7">
         <v>43453</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="7">
         <v>43454</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="7">
         <v>43455</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="7">
         <v>43456</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
       <c r="B32" s="7">
         <v>43457</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="7">
         <v>43458</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="7">
         <v>43459</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="7">
         <v>43460</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="7">
         <v>43461</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="7">
         <v>43462</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9">
         <v>43463</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12">
+      <c r="A39" s="13"/>
+      <c r="B39" s="9">
         <v>43464</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="7">
         <v>43465</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="10">
         <v>43466</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="7">
         <v>43467</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="7">
         <v>43468</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="7">
         <v>43469</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="13">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10">
         <v>43470</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="13">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10">
         <v>43471</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="7">
         <v>43472</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="7">
         <v>43473</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="7">
         <v>43474</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="7">
         <v>43475</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="7">
         <v>43476</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="13">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10">
         <v>43477</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="13">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10">
         <v>43478</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="7">
         <v>43479</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="7">
         <v>43480</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="7">
         <v>43481</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="7">
         <v>43482</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="7">
         <v>43483</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="13">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10">
         <v>43484</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="13">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10">
         <v>43485</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="7">
         <v>43486</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="7">
         <v>43487</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="7">
         <v>43488</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="7">
         <v>43489</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="7">
         <v>43490</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="13">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10">
         <v>43491</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="13">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10">
         <v>43492</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="7">
         <v>43493</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="7">
         <v>43494</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="7">
         <v>43495</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="7">
         <v>43496</v>
       </c>
